--- a/Assets/Phil Rey/Questionaire (Pre-Cal Legends).xlsx
+++ b/Assets/Phil Rey/Questionaire (Pre-Cal Legends).xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity Projects\Precal Legends\Assets\Phil Rey\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1773B9-00C2-438A-A46F-5DBE1DA7302B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
   <si>
     <t>Easy Questions</t>
   </si>
@@ -94,9 +103,6 @@
     <t>d. -i</t>
   </si>
   <si>
-    <t>6. The                     of a fraction, when set equal to zero, will give the vertical asymptotes of a rational function.</t>
-  </si>
-  <si>
     <t>a. Numerator</t>
   </si>
   <si>
@@ -127,232 +133,244 @@
     <t>d. y = 1/6 x + 13</t>
   </si>
   <si>
+    <t>a. Domain and Range</t>
+  </si>
+  <si>
+    <t>b. Range and Output</t>
+  </si>
+  <si>
+    <t>c. Domain and Input</t>
+  </si>
+  <si>
+    <t>d. Input and Output</t>
+  </si>
+  <si>
+    <t>3. If f (x)  = 2x -  3 and g(x) = 2 then f (g(x)) =</t>
+  </si>
+  <si>
+    <t>b. 0</t>
+  </si>
+  <si>
+    <t>c. 1</t>
+  </si>
+  <si>
+    <t>d. 2</t>
+  </si>
+  <si>
+    <t>4. If something is not a function, it is a(n):</t>
+  </si>
+  <si>
+    <t>a. Unfunction</t>
+  </si>
+  <si>
+    <t>b. Reciprocal</t>
+  </si>
+  <si>
+    <t>c. Relation</t>
+  </si>
+  <si>
+    <t>d. Reflection</t>
+  </si>
+  <si>
+    <t>5. Another way to write (f o g)(x) is</t>
+  </si>
+  <si>
+    <t>a. f (g(x))</t>
+  </si>
+  <si>
+    <t>b. g (f(x))</t>
+  </si>
+  <si>
+    <t>c. (fx)(x)</t>
+  </si>
+  <si>
+    <t>d. f(x)g(x)</t>
+  </si>
+  <si>
+    <t>Hard Questions</t>
+  </si>
+  <si>
+    <t>1. What is the value of the expression  - 4 √25  + 4^3 ?</t>
+  </si>
+  <si>
+    <t>a. 32</t>
+  </si>
+  <si>
+    <t>b. 44</t>
+  </si>
+  <si>
+    <t>c. 84</t>
+  </si>
+  <si>
+    <t>d. 112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. What is the simplified form of the expression (6x^4 + 4x^3 - 2x^2 + 5) - (3x^4 - 2x^3 + x + 4)?
+</t>
+  </si>
+  <si>
+    <t>a. 3x^4 + 2x^3 - 2x^2 + x + 1</t>
+  </si>
+  <si>
+    <t>b. 3x^4 + 2x^3 - 2x^2  x + 9</t>
+  </si>
+  <si>
+    <t>c. 3x^4 + 6x^3 - 2x^2 + x + 1</t>
+  </si>
+  <si>
+    <t>d. 3x^4 + 6x^3 - 2x^2  x + 1</t>
+  </si>
+  <si>
+    <t>3. What is the simplest form of the expression 2x^2 + 16x + 14 / x^2 - 1?</t>
+  </si>
+  <si>
+    <t>a. 2(x + 7)/(x - 1)</t>
+  </si>
+  <si>
+    <t>b. (2x + 2) (x + 7)/(x + 1) (x - 1)</t>
+  </si>
+  <si>
+    <t>c. 2(x + 7)/(x + 1)</t>
+  </si>
+  <si>
+    <t>d. 2(x + 1) (x + 7)/(x - 1) (x - 1)</t>
+  </si>
+  <si>
+    <t>4. What is the value of  (1/2)^-2?</t>
+  </si>
+  <si>
+    <t>a. - 4</t>
+  </si>
+  <si>
+    <t>b. - 1/4</t>
+  </si>
+  <si>
+    <t>c. 1/4</t>
+  </si>
+  <si>
+    <t>d. 4</t>
+  </si>
+  <si>
+    <t>5. A line has a slope of 3/4 and passes through the point ( - 4, 2). Which represents the equation of the line written in standard form?</t>
+  </si>
+  <si>
+    <t>a. 4x - 3y = - 22</t>
+  </si>
+  <si>
+    <t>b. - 3x + 4y = 20</t>
+  </si>
+  <si>
+    <t>c. 4x - 3y = -18</t>
+  </si>
+  <si>
+    <t>d. 3x - 4y = -24</t>
+  </si>
+  <si>
+    <t>6. Which statement is true for a line that passes through points (–2, 4) and (3, 4)?</t>
+  </si>
+  <si>
+    <t>a. The line has a negative slope.</t>
+  </si>
+  <si>
+    <t>b. The line has a positive slope.</t>
+  </si>
+  <si>
+    <t>c. The line has an undefined slope.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d. The line has a zero slope.
+</t>
+  </si>
+  <si>
+    <t>7. Use the figure below to answer the question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ABC is equilateral and each side measures 10 inches (in.). Segment DC is equal to 5 in. What is the length of AD?</t>
+  </si>
+  <si>
+    <t>a. 5√2 in.</t>
+  </si>
+  <si>
+    <t>b. 5√3 in.</t>
+  </si>
+  <si>
+    <t>c. 10√2 in.</t>
+  </si>
+  <si>
+    <t>b. 10√3 in.</t>
+  </si>
+  <si>
+    <t>&lt;sup&gt;&lt;/sup&gt;</t>
+  </si>
+  <si>
+    <t>6. The _____________ of a fraction, when set equal to zero, will give the vertical asymptotes of a rational function.</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
       <t xml:space="preserve">2. Two other vocabulary words that have the same meaning as </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
       </rPr>
       <t>independent variable</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> are:</t>
     </r>
-  </si>
-  <si>
-    <t>a. Domain and Range</t>
-  </si>
-  <si>
-    <t>b. Range and Output</t>
-  </si>
-  <si>
-    <t>c. Domain and Input</t>
-  </si>
-  <si>
-    <t>d. Input and Output</t>
-  </si>
-  <si>
-    <t>3. If f (x)  = 2x -  3 and g(x) = 2 then f (g(x)) =</t>
-  </si>
-  <si>
-    <t>b. 0</t>
-  </si>
-  <si>
-    <t>c. 1</t>
-  </si>
-  <si>
-    <t>d. 2</t>
-  </si>
-  <si>
-    <t>4. If something is not a function, it is a(n):</t>
-  </si>
-  <si>
-    <t>a. Unfunction</t>
-  </si>
-  <si>
-    <t>b. Reciprocal</t>
-  </si>
-  <si>
-    <t>c. Relation</t>
-  </si>
-  <si>
-    <t>d. Reflection</t>
-  </si>
-  <si>
-    <t>5. Another way to write (f o g)(x) is</t>
-  </si>
-  <si>
-    <t>a. f (g(x))</t>
-  </si>
-  <si>
-    <t>b. g (f(x))</t>
-  </si>
-  <si>
-    <t>c. (fx)(x)</t>
-  </si>
-  <si>
-    <t>d. f(x)g(x)</t>
-  </si>
-  <si>
-    <t>Hard Questions</t>
-  </si>
-  <si>
-    <t>1. What is the value of the expression  - 4 √25  + 4^3 ?</t>
-  </si>
-  <si>
-    <t>a. 32</t>
-  </si>
-  <si>
-    <t>b. 44</t>
-  </si>
-  <si>
-    <t>c. 84</t>
-  </si>
-  <si>
-    <t>d. 112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. What is the simplified form of the expression (6x^4 + 4x^3 - 2x^2 + 5) - (3x^4 - 2x^3 + x + 4)?
-</t>
-  </si>
-  <si>
-    <t>a. 3x^4 + 2x^3 - 2x^2 + x + 1</t>
-  </si>
-  <si>
-    <t>b. 3x^4 + 2x^3 - 2x^2  x + 9</t>
-  </si>
-  <si>
-    <t>c. 3x^4 + 6x^3 - 2x^2 + x + 1</t>
-  </si>
-  <si>
-    <t>d. 3x^4 + 6x^3 - 2x^2  x + 1</t>
-  </si>
-  <si>
-    <t>3. What is the simplest form of the expression 2x^2 + 16x + 14 / x^2 - 1?</t>
-  </si>
-  <si>
-    <t>a. 2(x + 7)/(x - 1)</t>
-  </si>
-  <si>
-    <t>b. (2x + 2) (x + 7)/(x + 1) (x - 1)</t>
-  </si>
-  <si>
-    <t>c. 2(x + 7)/(x + 1)</t>
-  </si>
-  <si>
-    <t>d. 2(x + 1) (x + 7)/(x - 1) (x - 1)</t>
-  </si>
-  <si>
-    <t>4. What is the value of  (1/2)^-2?</t>
-  </si>
-  <si>
-    <t>a. - 4</t>
-  </si>
-  <si>
-    <t>b. - 1/4</t>
-  </si>
-  <si>
-    <t>c. 1/4</t>
-  </si>
-  <si>
-    <t>d. 4</t>
-  </si>
-  <si>
-    <t>5. A line has a slope of 3/4 and passes through the point ( - 4, 2). Which represents the equation of the line written in standard form?</t>
-  </si>
-  <si>
-    <t>a. 4x - 3y = - 22</t>
-  </si>
-  <si>
-    <t>b. - 3x + 4y = 20</t>
-  </si>
-  <si>
-    <t>c. 4x - 3y = -18</t>
-  </si>
-  <si>
-    <t>d. 3x - 4y = -24</t>
-  </si>
-  <si>
-    <t>6. Which statement is true for a line that passes through points (–2, 4) and (3, 4)?</t>
-  </si>
-  <si>
-    <t>a. The line has a negative slope.</t>
-  </si>
-  <si>
-    <t>b. The line has a positive slope.</t>
-  </si>
-  <si>
-    <t>c. The line has an undefined slope.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d. The line has a zero slope.
-</t>
-  </si>
-  <si>
-    <t>7. Use the figure below to answer the question.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        ABC is equilateral and each side measures 10 inches (in.). Segment DC is equal to 5 in. What is the length of AD?</t>
-  </si>
-  <si>
-    <t>a. 5√2 in.</t>
-  </si>
-  <si>
-    <t>b. 5√3 in.</t>
-  </si>
-  <si>
-    <t>c. 10√2 in.</t>
-  </si>
-  <si>
-    <t>b. 10√3 in.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -374,50 +392,53 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -426,9 +447,15 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="171450" cy="190500"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Shape 3"/>
+        <xdr:cNvPr id="3" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -438,29 +465,29 @@
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst>
-            <a:gd fmla="val 50000" name="adj"/>
+            <a:gd name="adj" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="CFE2F3"/>
         </a:solidFill>
-        <a:ln cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
-          <a:headEnd len="sm" w="sm" type="none"/>
-          <a:tailEnd len="sm" w="sm" type="none"/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -469,9 +496,6 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1400"/>
         </a:p>
       </xdr:txBody>
@@ -488,11 +512,17 @@
     <xdr:ext cx="2838450" cy="2000250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="2" name="image1.png" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -510,7 +540,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -700,26 +730,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:F74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.43"/>
-    <col customWidth="1" min="2" max="2" width="27.43"/>
-    <col customWidth="1" min="3" max="3" width="31.29"/>
-    <col customWidth="1" min="4" max="4" width="27.86"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,16 +763,19 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="F4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -750,13 +788,16 @@
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -770,12 +811,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -788,13 +829,16 @@
       <c r="D11" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -807,13 +851,16 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
@@ -826,273 +873,319 @@
       <c r="D17" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19">
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="7"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="s">
+      <c r="C29" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="5" t="s">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="5" t="s">
+      <c r="C35" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="5" t="s">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="F41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="5" t="s">
+      <c r="B44" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="D44" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D44" s="5" t="s">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="5" t="s">
+      <c r="B47" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="D47" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="E47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="8" t="s">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="9" t="s">
+      <c r="B50" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="8" t="s">
+      <c r="C50" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="D50" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="9" t="s">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="9" t="s">
+      <c r="B53" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="D53" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="E53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D53" s="8" t="s">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="D56" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D56" s="9" t="s">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="5" t="s">
+      <c r="B59" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="D59" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="E59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D59" s="8" t="s">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="5" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="5" t="s">
+      <c r="C74" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="D74" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C74" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>93</v>
+      <c r="E74">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>